--- a/Investimentos.xlsx
+++ b/Investimentos.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67a6c808f88308e0/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67a6c808f88308e0/Documentos/GitHub/Planilha-Investimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5C4FF2-150F-4A23-BAB5-D92EBF6B4972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{DB5C4FF2-150F-4A23-BAB5-D92EBF6B4972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F47B845E-DCF1-48D9-8602-07441C41D94C}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="3360" windowWidth="38640" windowHeight="15840" xr2:uid="{98AE7251-0285-4581-91DD-1E5EDE9424B9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="APOIO" sheetId="2" r:id="rId2"/>
+    <sheet name="Painel de Investimentos" sheetId="1" r:id="rId1"/>
+    <sheet name="APOIO" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="aporte">Planilha1!$D$17</definedName>
-    <definedName name="patrimonio">Planilha1!$D$20</definedName>
-    <definedName name="qtd_anos">Planilha1!$D$18</definedName>
-    <definedName name="rendimento_carteira">Planilha1!$D$13</definedName>
-    <definedName name="taxa_mensal">Planilha1!$D$19</definedName>
+    <definedName name="aporte">'Painel de Investimentos'!$D$17</definedName>
+    <definedName name="patrimonio">'Painel de Investimentos'!$D$20</definedName>
+    <definedName name="qtd_anos">'Painel de Investimentos'!$D$18</definedName>
+    <definedName name="rendimento_carteira">'Painel de Investimentos'!$D$13</definedName>
+    <definedName name="taxa_mensal">'Painel de Investimentos'!$D$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1276,7 +1276,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$35:$B$40</c:f>
+              <c:f>'Painel de Investimentos'!$B$35:$B$40</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1302,7 +1302,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$35:$C$40</c:f>
+              <c:f>'Painel de Investimentos'!$C$35:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1676,7 +1676,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$35:$B$40</c:f>
+              <c:f>'Painel de Investimentos'!$B$35:$B$40</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1702,7 +1702,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$35:$D$40</c:f>
+              <c:f>'Painel de Investimentos'!$D$35:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
